--- a/backtest/bt_report/rs_m_ind/single_run/last/summary.xlsx
+++ b/backtest/bt_report/rs_m_ind/single_run/last/summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="51600" yWindow="8320" windowWidth="28400" windowHeight="25040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="概览" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="概览" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>./backtest/rotation_strategy/bt/rs_m_ind/rs_m_ind.py</t>
+          <t>./backtest/bt/rs_m_ind/rs_m_ind.py</t>
         </is>
       </c>
       <c r="C4" s="13" t="n"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>STOCK:10000000.0</t>
+          <t>STOCK:100000000.0</t>
         </is>
       </c>
       <c r="C5" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>61477159.42814904</v>
+        <v>547314694.0943071</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>2491.780949052423</v>
+        <v>6726.295307010412</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.147715942814904</v>
+        <v>4.473146940943071</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2571234795293944</v>
+        <v>0.2388475766068812</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.147715942814904</v>
+        <v>5.473146940943071</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="C13" s="13" t="n"/>
       <c r="D13" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>165.5852141847725</v>
+        <v>163.8016114462503</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3466994153296191</v>
+        <v>0.1997208139271588</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2027255017202166</v>
+        <v>0.1936021240123498</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.018600247722466</v>
+        <v>0.9814279961233892</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1444474184378625</v>
+        <v>0.1364601066359063</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.429559963791968</v>
+        <v>1.392396278288387</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2206158238475011</v>
+        <v>0.1872493811011675</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02033799295921488</v>
+        <v>0.01941516009782413</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.8663097667048723</v>
+        <v>0.6313485968077448</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08179245927151024</v>
+        <v>0.0636062813633429</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1942318007741244</v>
+        <v>0.1770998335820816</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3831242855589008</v>
+        <v>0.3599681066471677</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.357452207413292</v>
+        <v>1.306565400183083</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4364081684893034</v>
+        <v>0.3685791576983086</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5819303150841232</v>
+        <v>0.6203150393183933</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2533782854074831</v>
+        <v>0.2552685083985415</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1875019601565348</v>
+        <v>0.1713086324952553</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4091250755557113</v>
+        <v>0.3754187252464343</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.009542090483884</v>
+        <v>0.9677017916382005</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.53654898672668</v>
+        <v>1.516128694280316</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.360711467206008</v>
+        <v>1.286113056886363</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03273166980726297</v>
+        <v>0.03357869783637365</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1764954329809231</v>
+        <v>0.1755281453795226</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6739979999999991</v>
+        <v>0.6572160000000011</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.526085147052424</v>
+        <v>0.5091174438270818</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.401434552748155</v>
+        <v>3.420993367404979</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.530984444476212</v>
+        <v>5.474778053968948</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.5789473684210527</v>
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.163918953308188</v>
+        <v>1.086767808179501</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.004557541235247292</v>
+        <v>-0.0354450043792004</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.807094020631129</v>
+        <v>2.776067171950666</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.805933552967469</v>
+        <v>3.64082780121501</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07493106772423476</v>
+        <v>-0.05721316571362457</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1790608455753444</v>
+        <v>0.1953239935298312</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3880428358917373</v>
+        <v>-0.3558135259079194</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.002623790174586808</v>
+        <v>0.03962767744182105</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2286561546730114</v>
+        <v>0.1931621850164809</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3517778150528274</v>
+        <v>0.3107920614141398</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.751708929671074</v>
+        <v>1.718594169129576</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.459031597586601</v>
+        <v>2.362356452602546</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="6">
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.06164478885452031</v>
+        <v>-0.04851022415850928</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2451129115074649</v>
+        <v>0.2621315499172984</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3657431330470629</v>
+        <v>-0.2731581184983285</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.1392502373831807</v>
+        <v>0.2372799953117701</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3721526890170332</v>
+        <v>0.3406182517762705</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07190090715980178</v>
+        <v>-0.09340171134993258</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.669872074110096</v>
+        <v>1.564102784086202</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.8531448552839727</v>
+        <v>0.638397932917481</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1281152202823918</v>
+        <v>0.05333788506501335</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3412861685412383</v>
+        <v>-0.3867392454307172</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6351156579303923</v>
+        <v>0.3476466241769234</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.788800704481487</v>
+        <v>-2.184541846044768</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.02762215591571517</v>
+        <v>-0.01942054239539772</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1696962702941715</v>
+        <v>-0.1648889548803522</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.05802698326042656</v>
+        <v>-0.02165174813500616</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.5119944951473883</v>
+        <v>-0.4382542362577577</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.0571952181889997</v>
+        <v>0.06785215298224753</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2085143383326719</v>
+        <v>0.2205858606423904</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.165803160751011</v>
+        <v>1.431790072817247</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.593915405216239</v>
+        <v>1.935023174048855</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.0210530000000001</v>
+        <v>-0.01633799999999985</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01218145619732169</v>
+        <v>0.01222371099015707</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02885034595790326</v>
+        <v>0.03060101276908544</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1116386240152867</v>
+        <v>0.09848999420165527</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.002439842226477085</v>
+        <v>-0.001565797656360113</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.05162648550868854</v>
+        <v>0.03583880667036343</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.00183115212861984</v>
+        <v>0.006260985030764665</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1501881539419969</v>
+        <v>0.1553913169492531</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2219614621801009</v>
+        <v>0.2226965466460284</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.02261173549789208</v>
+        <v>0.04264139375917253</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1168425971901743</v>
+        <v>0.07506588991609342</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1621127411059444</v>
+        <v>0.1590170473845909</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1397660910836009</v>
+        <v>0.1209526353069594</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1783814009030393</v>
+        <v>0.1766039621560274</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.01796545645864978</v>
+        <v>-0.01726196261721713</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01879267689262742</v>
+        <v>0.0150918501142594</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002218373275552299</v>
+        <v>0.002882415114375148</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1146214888053509</v>
+        <v>0.1145354274886574</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.0752650288986132</v>
+        <v>0.07656910188052812</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01011425982083725</v>
+        <v>0.01453673774611453</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0884179973696968</v>
+        <v>-0.03177063377888945</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01717719361947534</v>
+        <v>-0.01675210663146554</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.04483374879444413</v>
+        <v>0.0444262806464728</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.05130890299399049</v>
+        <v>-0.04964365545003846</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01580243152590532</v>
+        <v>0.02382593927153365</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02970580629761543</v>
+        <v>5.798515340948995e-05</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001126064545579952</v>
+        <v>0.005372281954094005</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02598850265911257</v>
+        <v>-0.02967906148098598</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.007268687558289244</v>
+        <v>0.007246898530246515</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03783432463647229</v>
+        <v>0.008663579780336716</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02302717125740683</v>
+        <v>-0.01682219824531672</v>
       </c>
     </row>
     <row r="5">
@@ -1550,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02615663662358836</v>
+        <v>0.02596791958210853</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02389275220030385</v>
+        <v>0.01752418660019606</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.001696217933897737</v>
+        <v>0.003506526664145637</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.001924720407990965</v>
+        <v>-0.001814036119110463</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04775625163709307</v>
+        <v>0.0436547044165061</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04449089466597322</v>
+        <v>0.03520375872484771</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02581576021450882</v>
+        <v>0.01339870248088015</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.01119094116316233</v>
+        <v>0.00509772037145928</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05986118963084075</v>
+        <v>0.05383656274171345</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.02766513852994246</v>
+        <v>-0.01595680375288766</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001597923961645931</v>
+        <v>-0.000159865486814792</v>
       </c>
     </row>
     <row r="6">
@@ -1588,25 +1588,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.008443390326157374</v>
+        <v>0.008453917831938718</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.037557551298812</v>
+        <v>-0.03786327731889272</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007750979664470803</v>
+        <v>0.007690561152916775</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.05467987953267206</v>
+        <v>-0.04379858157893024</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07040395461897186</v>
+        <v>0.07023659475998478</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03197431433478259</v>
+        <v>-0.03101853826268886</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.0357907300597059</v>
+        <v>-0.03579365613846053</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03434774103576399</v>
+        <v>0.03585805048334434</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01794369659977235</v>
+        <v>-0.01741708627020377</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01260734765549953</v>
+        <v>-0.0003825541269508737</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2342286040095154</v>
+        <v>0.235501095804592</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.08514031215027651</v>
+        <v>0.08673857784738992</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.001866496562855646</v>
+        <v>-0.01263774697331599</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01272893831933242</v>
+        <v>-0.01188311296459676</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02534363368642167</v>
+        <v>-0.007363791216681514</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01694550854184673</v>
+        <v>-0.01772617801253873</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.009821174755894058</v>
+        <v>0.009816435138652047</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.003252902474748298</v>
+        <v>0.006981625613627029</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.007299225938378506</v>
+        <v>-0.007207069978747649</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03849645912347233</v>
+        <v>-0.03986774053249609</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08327582659004218</v>
+        <v>0.08328277722340105</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04585212642539838</v>
+        <v>0.04585956994196483</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09049137488977244</v>
+        <v>-0.09001038387183702</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.04592589213914078</v>
+        <v>-0.0468845318672062</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01213693892639944</v>
+        <v>-0.002217618044505931</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01468458756997637</v>
+        <v>0.004941615285208201</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.09923237547074604</v>
+        <v>0.0915477292476381</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05600634270998017</v>
+        <v>0.05797285894849491</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01631372341156367</v>
+        <v>-0.01730483070247668</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02262532946454388</v>
+        <v>-0.0207009033692972</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03838171489589193</v>
+        <v>-0.03009420225134829</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06691480381499537</v>
+        <v>0.05890982295604341</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05710400943496241</v>
+        <v>0.01460208092027759</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.01394309456971088</v>
+        <v>0.008374581586596541</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03494211558432825</v>
+        <v>-0.06092025269695767</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02666093585289975</v>
+        <v>-0.02571212737427131</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.02742063807996509</v>
+        <v>-0.01179165905447344</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0302386068195668</v>
+        <v>0.05356394913044804</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.0226684575205206</v>
+        <v>-0.006898440456509558</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.009194067170580134</v>
+        <v>0.02047727015191358</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0199693890661452</v>
+        <v>0.02118169886752908</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05106434272992155</v>
+        <v>-0.05004771030931399</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01199406487368204</v>
+        <v>0.01382160122060938</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01700257647963976</v>
+        <v>0.01889403509388976</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.00945956220730193</v>
+        <v>0.005239016393892681</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.0178426271242258</v>
+        <v>-0.01018168607628867</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01472083191364859</v>
+        <v>-0.01463220211961158</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02577388105029677</v>
+        <v>0.02577755141967497</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.07181112352860342</v>
+        <v>0.07436859657597372</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.006323745239896317</v>
+        <v>-0.006539095167114151</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.04331862535215958</v>
+        <v>0.04829158663534994</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01904821203977047</v>
+        <v>-0.01900708508411431</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03568555111597804</v>
+        <v>-0.03441457341160159</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1589128973498108</v>
+        <v>0.1449462683522449</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05998701652159655</v>
+        <v>-0.05921249053832811</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02812912515648791</v>
+        <v>-0.04294135670745203</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01975903251994371</v>
+        <v>0.02407361903497929</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1048161344373812</v>
+        <v>0.1097192819872326</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2963273490435121</v>
+        <v>0.2972535160332168</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1108340626509492</v>
+        <v>-0.0935815848179361</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02789137400481567</v>
+        <v>-0.06593647556749782</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.04334105364756324</v>
+        <v>-0.04612017608918728</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.07191794627522918</v>
+        <v>-0.08830437373569411</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.0535269744561695</v>
+        <v>-0.05520820144181426</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1831488523326539</v>
+        <v>0.1838439644125633</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2514117738830384</v>
+        <v>0.2463899561796856</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06648158091713163</v>
+        <v>-0.06586781893686489</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06827939459584964</v>
+        <v>-0.068372232782276</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.004360706648024903</v>
+        <v>-0.003196264975075302</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.008673230068610427</v>
+        <v>-0.004422624312366952</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2005920763378439</v>
+        <v>0.2690839720942571</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.02945353442947307</v>
+        <v>0.029892148823492</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1321546878515849</v>
+        <v>-0.1325288466426386</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.009751449574708193</v>
+        <v>-0.008239162251679533</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01723841981023799</v>
+        <v>-0.009911722777366183</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.07813772518755768</v>
+        <v>0.04753119417239371</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03256465356275962</v>
+        <v>-0.02847763025110162</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007682305361589536</v>
+        <v>-0.01162778256224672</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.001347103425745289</v>
+        <v>0.001325576446434606</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02572114760570154</v>
+        <v>-0.003039913954920648</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08276752588950642</v>
+        <v>0.08960993391755268</v>
       </c>
     </row>
     <row r="5">
@@ -2006,37 +2006,37 @@
         <v>0.03685602696773627</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.003952282350411229</v>
+        <v>0.003764092730750734</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.03396792923500569</v>
+        <v>0.02740487916176138</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0310761039515004</v>
+        <v>0.03282987329413922</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04539433134951087</v>
+        <v>0.04551027419827114</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01495091784367109</v>
+        <v>0.01089948332262414</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08960255945622908</v>
+        <v>0.07991522621517233</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03752450470363822</v>
+        <v>-0.04966392931549735</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.001902424317049123</v>
+        <v>-0.004223579662163357</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05668133645517015</v>
+        <v>0.05048080350110262</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.02595978116144093</v>
+        <v>0.03792738919872329</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007843777466792323</v>
+        <v>0.007843703467239393</v>
       </c>
     </row>
     <row r="6">
@@ -2044,25 +2044,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01631980569243385</v>
+        <v>0.01633059156258643</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05397150923450733</v>
+        <v>-0.05426572681397823</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07366861681359826</v>
+        <v>-0.07372489300225038</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.00822799236567251</v>
+        <v>0.002998549823872931</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1062142645608579</v>
+        <v>0.1060364968908105</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.0437424069815191</v>
+        <v>0.04472515982599923</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01192638608925289</v>
+        <v>-0.01192933332348411</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0.07966801273828805</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.009917403790374202</v>
+        <v>-0.00855312423317911</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04277175748661421</v>
+        <v>0.04332087413404317</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.003487785091324636</v>
+        <v>0.0157716652315234</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.0126327339247847</v>
+        <v>-0.01161221459431383</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01712717780748108</v>
+        <v>-0.0156279583571155</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.042912702027462</v>
+        <v>0.02778554403794042</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.0681356139051621</v>
+        <v>0.06897915063049087</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.003329291994137451</v>
+        <v>-0.02927460409792981</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05524609546114501</v>
+        <v>-0.05600124431011022</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01871179378490573</v>
+        <v>-0.01871691248114937</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01422859211036975</v>
+        <v>-0.003490015271851665</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03510427704911301</v>
+        <v>-0.0350148827144301</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.035342055723382</v>
+        <v>-0.03672567417591832</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.002404813775539028</v>
+        <v>0.00241149585895406</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02525232832629176</v>
+        <v>-0.02524502012752938</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1564529425427728</v>
+        <v>-0.1560578037696484</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04863109887605743</v>
+        <v>0.04759841472144677</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.0885570207128864</v>
+        <v>-0.1017320076471595</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.00525950933131103</v>
+        <v>-0.004618426273679144</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.06049105636360042</v>
+        <v>-0.06762592485792829</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.0817671958730477</v>
+        <v>-0.08011185388428743</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.005004886603640513</v>
+        <v>0.003968090797116908</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02997117830149154</v>
+        <v>0.03195162091631842</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.07136387506498965</v>
+        <v>-0.06359639650998894</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07415576871699581</v>
+        <v>0.06523191824399643</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06393711308913552</v>
+        <v>-0.1020855764773061</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.06682627538479924</v>
+        <v>-0.0459723058605449</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03367580378609047</v>
+        <v>0.005679947747147418</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01694541483409551</v>
+        <v>0.01787962473909976</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.08553960791885229</v>
+        <v>-0.1210598855110941</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03932797946717559</v>
+        <v>-0.01908715504471603</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07355538823032548</v>
+        <v>-0.05828017869800894</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01192254419954897</v>
+        <v>0.02270653807500711</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08631000181984128</v>
+        <v>0.08757497266491532</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06355731844030565</v>
+        <v>-0.06256697476739392</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0217056693948563</v>
+        <v>-0.0199270336795444</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.02620963452639924</v>
+        <v>-0.0244166954884768</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06051235561164026</v>
+        <v>0.05643397210428236</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1162683055062594</v>
+        <v>0.1248917733476693</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1142596827268003</v>
+        <v>0.1143584483573861</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01521045455179715</v>
+        <v>-0.01520686152721951</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.08547366911956455</v>
+        <v>-0.08330747210067924</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.00387268569439736</v>
+        <v>0.003657335767179415</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
